--- a/wcsa5seleniumproject/data/ActiTimeTestData.xlsx
+++ b/wcsa5seleniumproject/data/ActiTimeTestData.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="validcreds" sheetId="1" r:id="rId1"/>
     <sheet name="invalidcreds" sheetId="2" r:id="rId2"/>
+    <sheet name="managercreds" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
   <si>
     <t>Username</t>
   </si>
@@ -56,6 +57,24 @@
   </si>
   <si>
     <t>sdfsd</t>
+  </si>
+  <si>
+    <t>First Name</t>
+  </si>
+  <si>
+    <t>Last Name</t>
+  </si>
+  <si>
+    <t>manager2</t>
+  </si>
+  <si>
+    <t>Manager@124</t>
+  </si>
+  <si>
+    <t>Ms</t>
+  </si>
+  <si>
+    <t>Dhoni</t>
   </si>
 </sst>
 </file>
@@ -433,8 +452,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -451,35 +470,84 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
